--- a/IRIS/repeated_holdout_cross_val_50_iris.xlsx
+++ b/IRIS/repeated_holdout_cross_val_50_iris.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Π.Μ.Σ Στατιστική-Χρηματοοικονομικά και Αναλογιστικά Μαθηματικά\ΜΑΘΗΜΑΤΑ 2ου Εξαμήνου\Εφαρμοσμένη Πολυμεταβλητή Ανάλυση και Big Data\Πτυχιακή\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43E106-7766-45E1-8624-CA6D25E7F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F55C3-8986-4F4C-9702-23430C4157CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Summary!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Summary!$A$2:$A$52</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Summary!$A$2:$A$51</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Summary!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Summary!$F$2:$F$52</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Summary!$F$2:$F$51</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Summary!$G$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Summary!$G$2:$G$52</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Summary!$A$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Summary!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Summary!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Summary!$B$2:$B$52</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Summary!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Summary!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Summary!$G$2:$G$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Summary!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Summary!$D$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Summary!$D$2:$D$52</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Summary!$E$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Summary!$E$2:$E$52</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Summary!$F$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Summary!$F$2:$F$52</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Summary!$G$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Summary!$G$2:$G$52</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Summary!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Summary!$B$2:$B$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Summary!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Summary!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Summary!$C$2:$C$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Summary!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Summary!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Summary!$D$2:$D$51</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Summary!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Summary!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Summary!$E$2:$E$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -202,14 +188,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,7 +1006,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6286500" y="87630"/>
-              <a:ext cx="5570220" cy="2743200"/>
+              <a:ext cx="6652260" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1054,8 +1040,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8268E274-CF67-4400-AC9C-454365A92021}" name="Table1" displayName="Table1" ref="A1:J52" totalsRowShown="0">
-  <autoFilter ref="A1:J52" xr:uid="{8268E274-CF67-4400-AC9C-454365A92021}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8268E274-CF67-4400-AC9C-454365A92021}" name="Table1" displayName="Table1" ref="A1:J51" totalsRowShown="0">
+  <autoFilter ref="A1:J51" xr:uid="{8268E274-CF67-4400-AC9C-454365A92021}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D16DA311-ED6A-4213-B02C-41951AED5970}" name="accuracy"/>
     <tableColumn id="2" xr3:uid="{82141236-125D-4B2D-92ED-14D08CCED829}" name="depth"/>
@@ -1073,8 +1059,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB677E2D-CEEF-4A24-BEA7-11B361A2650D}" name="Table2" displayName="Table2" ref="A1:K52" totalsRowShown="0">
-  <autoFilter ref="A1:K52" xr:uid="{BB677E2D-CEEF-4A24-BEA7-11B361A2650D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB677E2D-CEEF-4A24-BEA7-11B361A2650D}" name="Table2" displayName="Table2" ref="A1:K51" totalsRowShown="0">
+  <autoFilter ref="A1:K51" xr:uid="{BB677E2D-CEEF-4A24-BEA7-11B361A2650D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9C8751CC-E0FC-465F-8E7A-3BA663607A7A}" name="accuracy"/>
     <tableColumn id="2" xr3:uid="{FBCCB56D-0502-4997-8F0E-DCF3B8F7D240}" name="entropy_parameter"/>
@@ -1093,8 +1079,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{468BE448-39C3-459F-94AA-FF8912F9BF9D}" name="Table3" displayName="Table3" ref="A1:L52" totalsRowShown="0">
-  <autoFilter ref="A1:L52" xr:uid="{468BE448-39C3-459F-94AA-FF8912F9BF9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{468BE448-39C3-459F-94AA-FF8912F9BF9D}" name="Table3" displayName="Table3" ref="A1:L51" totalsRowShown="0">
+  <autoFilter ref="A1:L51" xr:uid="{468BE448-39C3-459F-94AA-FF8912F9BF9D}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{2D7C5B64-30A4-40B4-A6B2-4F7BEA9B2629}" name="accuracy"/>
     <tableColumn id="2" xr3:uid="{C40CA002-88FC-43EF-8185-8B1B75323AE7}" name="entropy_parameter_one"/>
@@ -1114,8 +1100,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD937F86-9148-49EB-9BCC-D8C14EFE170D}" name="Table4" displayName="Table4" ref="A1:K52" totalsRowShown="0">
-  <autoFilter ref="A1:K52" xr:uid="{CD937F86-9148-49EB-9BCC-D8C14EFE170D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD937F86-9148-49EB-9BCC-D8C14EFE170D}" name="Table4" displayName="Table4" ref="A1:K51" totalsRowShown="0">
+  <autoFilter ref="A1:K51" xr:uid="{CD937F86-9148-49EB-9BCC-D8C14EFE170D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C7E3A82C-A88F-4B49-ABD2-ACF1035956ED}" name="accuracy"/>
     <tableColumn id="2" xr3:uid="{024B91FE-8BE6-44DC-8D23-A34EA76B4475}" name="entropy_parameter"/>
@@ -1134,8 +1120,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{62E89464-A8FD-4A6F-9C8E-6EB30EB67ADA}" name="Table5" displayName="Table5" ref="A1:L52" totalsRowShown="0">
-  <autoFilter ref="A1:L52" xr:uid="{62E89464-A8FD-4A6F-9C8E-6EB30EB67ADA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{62E89464-A8FD-4A6F-9C8E-6EB30EB67ADA}" name="Table5" displayName="Table5" ref="A1:L51" totalsRowShown="0">
+  <autoFilter ref="A1:L51" xr:uid="{62E89464-A8FD-4A6F-9C8E-6EB30EB67ADA}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3C8E5DCC-EE49-4CB1-9B69-9B502ADE358F}" name="accuracy"/>
     <tableColumn id="2" xr3:uid="{59330825-0958-4709-B1FE-0FADAFC1324E}" name="entropy_parameter_one"/>
@@ -1155,8 +1141,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D379257D-C0C3-4D09-8B18-10813E265F74}" name="Table6" displayName="Table6" ref="A1:L52" totalsRowShown="0">
-  <autoFilter ref="A1:L52" xr:uid="{D379257D-C0C3-4D09-8B18-10813E265F74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D379257D-C0C3-4D09-8B18-10813E265F74}" name="Table6" displayName="Table6" ref="A1:L51" totalsRowShown="0">
+  <autoFilter ref="A1:L51" xr:uid="{D379257D-C0C3-4D09-8B18-10813E265F74}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{05AF7985-ED16-4733-927F-6F41CDF2C7C7}" name="accuracy"/>
     <tableColumn id="2" xr3:uid="{7441892C-876D-422C-B81F-6CD1E0893052}" name="entropy_parameter_one"/>
@@ -1176,8 +1162,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87381385-7120-466D-B995-C11613610958}" name="Table7" displayName="Table7" ref="A1:K52" totalsRowShown="0">
-  <autoFilter ref="A1:K52" xr:uid="{87381385-7120-466D-B995-C11613610958}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87381385-7120-466D-B995-C11613610958}" name="Table7" displayName="Table7" ref="A1:K51" totalsRowShown="0">
+  <autoFilter ref="A1:K51" xr:uid="{87381385-7120-466D-B995-C11613610958}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{EDEC0FC3-9CE4-4A45-AFEA-C85F6110E1C4}" name="accuracy"/>
     <tableColumn id="2" xr3:uid="{75ECD2BD-8B91-46DA-BDDA-E1D4B7A6B1AF}" name="entropy_parameter"/>
@@ -1196,8 +1182,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{109E5C3A-AF7C-49CD-B207-82AECC371315}" name="Table8" displayName="Table8" ref="A1:A52" totalsRowShown="0">
-  <autoFilter ref="A1:A52" xr:uid="{109E5C3A-AF7C-49CD-B207-82AECC371315}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{109E5C3A-AF7C-49CD-B207-82AECC371315}" name="Table8" displayName="Table8" ref="A1:A51" totalsRowShown="0">
+  <autoFilter ref="A1:A51" xr:uid="{109E5C3A-AF7C-49CD-B207-82AECC371315}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{69407460-4A91-4C0E-8032-DA8C4E2684FD}" name="seed"/>
   </tableColumns>
@@ -1206,8 +1192,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D03CDAE0-18C6-4810-AAC1-1B3C93F9BE37}" name="Table9" displayName="Table9" ref="A1:G52" totalsRowShown="0">
-  <autoFilter ref="A1:G52" xr:uid="{D03CDAE0-18C6-4810-AAC1-1B3C93F9BE37}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D03CDAE0-18C6-4810-AAC1-1B3C93F9BE37}" name="Table9" displayName="Table9" ref="A1:G51" totalsRowShown="0">
+  <autoFilter ref="A1:G51" xr:uid="{D03CDAE0-18C6-4810-AAC1-1B3C93F9BE37}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5FA73755-EC1C-47CA-8718-447A9EF727FF}" name="Shannon"/>
     <tableColumn id="2" xr3:uid="{110FD470-4447-4600-A47E-30F770D780DC}" name="Renyi"/>
@@ -1500,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,38 +3124,6 @@
       </c>
       <c r="J51">
         <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>0.8</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="I52">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="J52">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -3183,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4977,41 +4931,6 @@
       </c>
       <c r="K51">
         <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="B52">
-        <v>1.25</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0.8</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="J52">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="K52">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -5025,10 +4944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6972,44 +6891,6 @@
       </c>
       <c r="L51">
         <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="B52">
-        <v>1.25</v>
-      </c>
-      <c r="C52">
-        <v>2.5</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0.8</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="K52">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="L52">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -7023,10 +6904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8817,41 +8698,6 @@
       </c>
       <c r="K51">
         <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="B52">
-        <v>1.25</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0.8</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="J52">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="K52">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -8865,10 +8711,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10812,44 +10658,6 @@
       </c>
       <c r="L51">
         <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.95555555555555605</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>2.25</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0.86666666666666703</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0.9375</v>
-      </c>
-      <c r="K52">
-        <v>0.92857142857142905</v>
-      </c>
-      <c r="L52">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -10863,10 +10671,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12810,44 +12618,6 @@
       </c>
       <c r="L51">
         <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="B52">
-        <v>2.25</v>
-      </c>
-      <c r="C52">
-        <v>0.5</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0.8</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="K52">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="L52">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -12861,10 +12631,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14655,41 +14425,6 @@
       </c>
       <c r="K51">
         <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="B52">
-        <v>0.1</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0.8</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="J52">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="K52">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -14703,10 +14438,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A52"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14964,11 +14699,6 @@
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -14982,10 +14712,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8DFE62-761F-4154-AD5E-9998B6F1951E}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15412,16 +15142,16 @@
       <c r="G18">
         <v>0.91111111111111098</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -15445,26 +15175,26 @@
       <c r="G19">
         <v>0.91111111111111098</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15490,36 +15220,36 @@
       <c r="G20">
         <v>0.97777777777777797</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <f>AVERAGE(Table1[depth])</f>
-        <v>3.7647058823529411</v>
-      </c>
-      <c r="K20" s="4">
+        <v>3.76</v>
+      </c>
+      <c r="K20" s="2">
         <f>AVERAGE(Table2[depth])</f>
-        <v>3.5490196078431371</v>
-      </c>
-      <c r="L20" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="L20" s="2">
         <f>AVERAGE(Table3[depth])</f>
-        <v>3.3529411764705883</v>
-      </c>
-      <c r="M20" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="M20" s="2">
         <f>AVERAGE(Table4[depth])</f>
-        <v>4.0392156862745097</v>
-      </c>
-      <c r="N20" s="4">
+        <v>4.04</v>
+      </c>
+      <c r="N20" s="2">
         <f>AVERAGE(Table5[depth])</f>
-        <v>5.0784313725490193</v>
-      </c>
-      <c r="O20" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="O20" s="2">
         <f>AVERAGE(Table6[depth])</f>
-        <v>3.1960784313725492</v>
-      </c>
-      <c r="P20" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="P20" s="2">
         <f>AVERAGE(Table7[depth])</f>
-        <v>4.0196078431372548</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -15544,36 +15274,36 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <f>_xlfn.STDEV.S(Table1[depth])</f>
-        <v>0.65079137345596783</v>
-      </c>
-      <c r="K21" s="4">
+        <v>0.65652144531863199</v>
+      </c>
+      <c r="K21" s="2">
         <f>_xlfn.STDEV.S(Table2[depth])</f>
-        <v>1.2379616389888028</v>
-      </c>
-      <c r="L21" s="4">
+        <v>1.2488361929151048</v>
+      </c>
+      <c r="L21" s="2">
         <f>_xlfn.STDEV.S(Table3[depth])</f>
-        <v>0.97618706018395263</v>
-      </c>
-      <c r="M21" s="4">
+        <v>0.98166871672054201</v>
+      </c>
+      <c r="M21" s="2">
         <f>_xlfn.STDEV.S(Table4[depth])</f>
-        <v>1.1128483151575594</v>
-      </c>
-      <c r="N21" s="4">
+        <v>1.1241323184517711</v>
+      </c>
+      <c r="N21" s="2">
         <f>_xlfn.STDEV.S(Table5[depth])</f>
-        <v>1.9681782160658317</v>
-      </c>
-      <c r="O21" s="4">
+        <v>1.9881280293845491</v>
+      </c>
+      <c r="O21" s="2">
         <f>_xlfn.STDEV.S(Table6[depth])</f>
-        <v>0.9385010994801708</v>
-      </c>
-      <c r="P21" s="4">
+        <v>0.94090707429000631</v>
+      </c>
+      <c r="P21" s="2">
         <f>_xlfn.STDEV.S(Table7[depth])</f>
-        <v>1.067524165130352</v>
+        <v>1.0783585409580356</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -15598,14 +15328,14 @@
       <c r="G22">
         <v>0.95555555555555605</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -15629,16 +15359,16 @@
       <c r="G23">
         <v>0.93333333333333302</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -15662,26 +15392,26 @@
       <c r="G24">
         <v>0.97777777777777797</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="4"/>
+      <c r="J24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15707,36 +15437,36 @@
       <c r="G25">
         <v>0.93333333333333302</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <f>AVERAGE(Table1[leaves])</f>
-        <v>5</v>
-      </c>
-      <c r="K25" s="4">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="K25" s="2">
         <f>AVERAGE(Table2[leaves])</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L25" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="L25" s="2">
         <f>AVERAGE(Table3[leaves])</f>
-        <v>4.4705882352941178</v>
-      </c>
-      <c r="M25" s="4">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M25" s="2">
         <f>AVERAGE(Table4[leaves])</f>
-        <v>5.2352941176470589</v>
-      </c>
-      <c r="N25" s="4">
+        <v>5.22</v>
+      </c>
+      <c r="N25" s="2">
         <f>AVERAGE(Table5[leaves])</f>
-        <v>6.1372549019607847</v>
-      </c>
-      <c r="O25" s="4">
+        <v>6.14</v>
+      </c>
+      <c r="O25" s="2">
         <f>AVERAGE(Table6[leaves])</f>
-        <v>4.2549019607843137</v>
-      </c>
-      <c r="P25" s="4">
+        <v>4.22</v>
+      </c>
+      <c r="P25" s="2">
         <f>AVERAGE(Table7[leaves])</f>
-        <v>5.215686274509804</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -15761,36 +15491,36 @@
       <c r="G26">
         <v>0.91111111111111098</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <f>_xlfn.STDEV.S(Table1[leaves])</f>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="K26" s="4">
+        <v>0.89191378735931248</v>
+      </c>
+      <c r="K26" s="2">
         <f>_xlfn.STDEV.S(Table2[leaves])</f>
-        <v>1.3515423288475523</v>
-      </c>
-      <c r="L26" s="4">
+        <v>1.3516429911445567</v>
+      </c>
+      <c r="L26" s="2">
         <f>_xlfn.STDEV.S(Table3[leaves])</f>
-        <v>1.1375929179890425</v>
-      </c>
-      <c r="M26" s="4">
+        <v>1.1277573917708892</v>
+      </c>
+      <c r="M26" s="2">
         <f>_xlfn.STDEV.S(Table4[leaves])</f>
-        <v>1.2261849011322505</v>
-      </c>
-      <c r="N26" s="4">
+        <v>1.2337101832790913</v>
+      </c>
+      <c r="N26" s="2">
         <f>_xlfn.STDEV.S(Table5[leaves])</f>
-        <v>1.9495600308083589</v>
-      </c>
-      <c r="O26" s="4">
+        <v>1.9692534584642651</v>
+      </c>
+      <c r="O26" s="2">
         <f>_xlfn.STDEV.S(Table6[leaves])</f>
-        <v>1.0167229171195451</v>
-      </c>
-      <c r="P26" s="4">
+        <v>0.99570506247009316</v>
+      </c>
+      <c r="P26" s="2">
         <f>_xlfn.STDEV.S(Table7[leaves])</f>
-        <v>1.1885070549255672</v>
+        <v>1.1952286093343936</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -16366,29 +16096,6 @@
       </c>
       <c r="G51">
         <v>0.88888888888888895</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="B52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="C52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="D52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="E52">
-        <v>0.95555555555555605</v>
-      </c>
-      <c r="F52">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="G52">
-        <v>0.93333333333333302</v>
       </c>
     </row>
   </sheetData>
